--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,73 +22,115 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>006768</t>
+  </si>
+  <si>
+    <t>007178</t>
+  </si>
+  <si>
+    <t>161124</t>
+  </si>
+  <si>
     <t>501023</t>
   </si>
   <si>
-    <t>006768</t>
-  </si>
-  <si>
-    <t>007178</t>
-  </si>
-  <si>
     <t>007216</t>
   </si>
   <si>
-    <t>161124</t>
-  </si>
-  <si>
     <t>006263</t>
   </si>
   <si>
+    <t>华安沪港深优选混合</t>
+  </si>
+  <si>
+    <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+  </si>
+  <si>
+    <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+  </si>
+  <si>
     <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
   </si>
   <si>
-    <t>华安沪港深优选混合</t>
-  </si>
-  <si>
-    <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-  </si>
-  <si>
     <t>浙商港股通中华交易服务预期高股息指数增强C</t>
   </si>
   <si>
-    <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-  </si>
-  <si>
     <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
   </si>
   <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>94.51</t>
+  </si>
+  <si>
+    <t>92.90</t>
+  </si>
+  <si>
+    <t>93.11</t>
+  </si>
+  <si>
     <t>92.49</t>
   </si>
   <si>
-    <t>94.51</t>
-  </si>
-  <si>
-    <t>92.90</t>
-  </si>
-  <si>
-    <t>93.11</t>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>2.45</t>
   </si>
   <si>
     <t>7.35</t>
   </si>
   <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>2.45</t>
+    <t>0.0584</t>
+  </si>
+  <si>
+    <t>0.0507</t>
+  </si>
+  <si>
+    <t>0.0122</t>
+  </si>
+  <si>
+    <t>0.0074</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.0029</t>
   </si>
 </sst>
 </file>
@@ -446,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,124 +510,166 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006768</t>
-  </si>
-  <si>
-    <t>007178</t>
-  </si>
-  <si>
-    <t>161124</t>
-  </si>
-  <si>
-    <t>501023</t>
-  </si>
-  <si>
-    <t>007216</t>
-  </si>
-  <si>
-    <t>006263</t>
-  </si>
-  <si>
-    <t>华安沪港深优选混合</t>
-  </si>
-  <si>
-    <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-  </si>
-  <si>
-    <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-  </si>
-  <si>
-    <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-  </si>
-  <si>
-    <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-  </si>
-  <si>
-    <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>94.51</t>
-  </si>
-  <si>
-    <t>92.90</t>
-  </si>
-  <si>
-    <t>93.11</t>
-  </si>
-  <si>
-    <t>92.49</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>0.0584</t>
-  </si>
-  <si>
-    <t>0.0507</t>
-  </si>
-  <si>
-    <t>0.0122</t>
-  </si>
-  <si>
-    <t>0.0074</t>
-  </si>
-  <si>
-    <t>0.0034</t>
-  </si>
-  <si>
-    <t>0.0029</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,193 +446,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.42</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.53</v>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1596,13 +1661,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.33</v>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.42</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.53</v>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2445,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,17 +2457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.44</v>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2492,14 +2535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.33</v>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2508,14 +2573,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.42</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2695,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="6">
@@ -2540,13 +2711,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006768</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安沪港深优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0507</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="D5" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010333</t>
+          <t>011516</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏核心资产混合A</t>
+          <t>嘉实浦盈一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.64</t>
+          <t>45.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.95</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8778</t>
+          <t>0.2597</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -829,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010334</t>
+          <t>011517</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏核心资产混合C</t>
+          <t>嘉实浦盈一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.95</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2716</t>
+          <t>0.0162</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -867,340 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008308</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏见龙精选混合</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1606</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005707</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1265,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010333</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏核心资产混合A</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.64</t>
+          <t>37.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7444</t>
+          <t>0.7508</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1303,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.43</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2983</t>
+          <t>0.5549</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1341,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010334</t>
+          <t>013626</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏核心资产混合C</t>
+          <t>华夏周期驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2332</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1379,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>012589</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1417,36 +961,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161620</t>
+          <t>013627</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通核心价值混合（QDII）</t>
+          <t>华夏周期驱动混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>61.27</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1455,36 +999,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012589</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1493,36 +1037,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,7 +1689,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2099,36 +1719,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>010333</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>华夏核心资产混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.54</t>
+          <t>61.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7508</t>
+          <t>1.7444</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2137,36 +1757,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>41.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5549</t>
+          <t>0.2983</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2175,36 +1795,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013626</t>
+          <t>010334</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合A</t>
+          <t>华夏核心资产混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0459</t>
+          <t>0.2332</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2213,36 +1833,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012589</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2251,36 +1871,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013627</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合C</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>61.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0452</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2289,36 +1909,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>012589</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2327,112 +1947,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,7 +2011,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2497,32 +2041,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011516</t>
+          <t>010333</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合A</t>
+          <t>华夏核心资产混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.57</t>
+          <t>73.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2597</t>
+          <t>1.8778</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2535,32 +2079,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011517</t>
+          <t>010334</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实浦盈一年持有期混合C</t>
+          <t>华夏核心资产混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0162</t>
+          <t>0.2716</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2573,36 +2117,340 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>008308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>华夏见龙精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.1606</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2616,128 +2464,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.14</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.42</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1150,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1662,7 +2267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1984,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2458,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01919-中远海控.xlsx
+++ b/数据整理/stocks/港股/01919-中远海控.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.49</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.42</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -600,6 +617,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013853</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015564</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015565</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
